--- a/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/Expr_2.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/Expr_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E56DFF-9100-ED49-9DCD-28AC5D24377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66A638-BBCB-554D-9C62-6CAD8EE90A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49860" yWindow="2440" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -707,8 +707,8 @@
         <v>37</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>"Result/Poisson/Expr1_7_2_PINN_Seed_" &amp; TEXT(INDEX(D:D,2), "0")&amp; "_Scale coeff_"&amp;INDEX(M:M,2) &amp; "_Learn_scale_"&amp;INDEX(T:T,2)</f>
-        <v>Result/Poisson/Expr1_7_2_PINN_Seed_42_Scale coeff_1,2_Learn_scale_TRUE</v>
+        <f>"Result/Poisson/Expr1_6_7_PINN_Seed_" &amp; TEXT(INDEX(D:D,2), "0")&amp; "_Scale coeff_"&amp;INDEX(M:M,2) &amp; "_Learn_scale_"&amp;INDEX(T:T,2)</f>
+        <v>Result/Poisson/Expr1_6_7_PINN_Seed_42_Scale coeff_1,2_Learn_scale_TRUE</v>
       </c>
       <c r="G2" s="12">
         <v>1</v>
